--- a/output/1Y_P64_KFSDIV.xlsx
+++ b/output/1Y_P64_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.3568</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.2487</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="F3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="H3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0081</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.3991</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E4" s="1">
-        <v>1503.4734</v>
+        <v>1500.4674</v>
       </c>
       <c r="F4" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="H4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3025</v>
+        <v>13.3292</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9730.474399999999</v>
+        <v>-9731.0141</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0114</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.5985</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E5" s="1">
-        <v>2249.7921</v>
+        <v>2245.2965</v>
       </c>
       <c r="F5" s="1">
-        <v>737.5775</v>
+        <v>736.1007</v>
       </c>
       <c r="H5" s="1">
-        <v>30593.7984</v>
+        <v>30471.5919</v>
       </c>
       <c r="I5" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="J5" s="1">
-        <v>30863.324</v>
+        <v>30740.5778</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3346</v>
+        <v>13.3613</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10029.9473</v>
+        <v>-10029.8873</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D6" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E6" s="1">
-        <v>2987.3696</v>
+        <v>2981.3972</v>
       </c>
       <c r="F6" s="1">
-        <v>732.3535000000001</v>
+        <v>730.8869</v>
       </c>
       <c r="H6" s="1">
-        <v>40913.5205</v>
+        <v>40750.0346</v>
       </c>
       <c r="I6" s="1">
-        <v>239.5783</v>
+        <v>239.0986</v>
       </c>
       <c r="J6" s="1">
-        <v>41153.0989</v>
+        <v>40989.1332</v>
       </c>
       <c r="K6" s="1">
-        <v>40029.9473</v>
+        <v>40029.8873</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3997</v>
+        <v>13.4266</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10029.9473</v>
+        <v>-10029.8873</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0071</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.3398</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E7" s="1">
-        <v>3719.7231</v>
+        <v>3712.284</v>
       </c>
       <c r="F7" s="1">
-        <v>751.8814</v>
+        <v>750.375</v>
       </c>
       <c r="H7" s="1">
-        <v>49620.3623</v>
+        <v>49422.0085</v>
       </c>
       <c r="I7" s="1">
-        <v>209.631</v>
+        <v>209.2113</v>
       </c>
       <c r="J7" s="1">
-        <v>49829.9934</v>
+        <v>49631.2198</v>
       </c>
       <c r="K7" s="1">
-        <v>50059.8946</v>
+        <v>50059.7746</v>
       </c>
       <c r="L7" s="1">
-        <v>13.458</v>
+        <v>13.4849</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>806.5898</v>
+        <v>804.9772</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9223.3575</v>
+        <v>-9224.910099999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0259</v>
+        <v>-0.0266</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.8469</v>
       </c>
       <c r="C8" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D8" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E8" s="1">
-        <v>4471.6045</v>
+        <v>4462.659</v>
       </c>
       <c r="F8" s="1">
-        <v>791.1931</v>
+        <v>789.588</v>
       </c>
       <c r="H8" s="1">
-        <v>57446.2558</v>
+        <v>57216.6438</v>
       </c>
       <c r="I8" s="1">
-        <v>986.2736</v>
+        <v>984.3012</v>
       </c>
       <c r="J8" s="1">
-        <v>58432.5293</v>
+        <v>58200.945</v>
       </c>
       <c r="K8" s="1">
-        <v>60089.8419</v>
+        <v>60089.662</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4381</v>
+        <v>13.465</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10164.3789</v>
+        <v>-10164.0502</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0234</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.129</v>
       </c>
       <c r="C9" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D9" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E9" s="1">
-        <v>5262.7976</v>
+        <v>5252.247</v>
       </c>
       <c r="F9" s="1">
-        <v>774.1929</v>
+        <v>772.6202</v>
       </c>
       <c r="H9" s="1">
-        <v>69095.2699</v>
+        <v>68818.6167</v>
       </c>
       <c r="I9" s="1">
-        <v>821.8946</v>
+        <v>820.251</v>
       </c>
       <c r="J9" s="1">
-        <v>69917.1645</v>
+        <v>69638.8677</v>
       </c>
       <c r="K9" s="1">
-        <v>70254.2208</v>
+        <v>70253.71219999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3492</v>
+        <v>13.3759</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10164.3789</v>
+        <v>-10164.0502</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0217</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.716</v>
       </c>
       <c r="C10" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D10" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E10" s="1">
-        <v>6036.9905</v>
+        <v>6024.8672</v>
       </c>
       <c r="F10" s="1">
-        <v>799.3378</v>
+        <v>797.7122000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76766.3717</v>
+        <v>76459.1793</v>
       </c>
       <c r="I10" s="1">
-        <v>657.5157</v>
+        <v>656.2008</v>
       </c>
       <c r="J10" s="1">
-        <v>77423.88740000001</v>
+        <v>77115.38009999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80418.59970000001</v>
+        <v>80417.76240000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.321</v>
+        <v>13.3476</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1420.9554</v>
+        <v>1418.1067</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8743.4236</v>
+        <v>-8745.943499999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0312</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.4613</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E11" s="1">
-        <v>6836.3283</v>
+        <v>6822.5794</v>
       </c>
       <c r="F11" s="1">
-        <v>853.6855</v>
+        <v>851.8738</v>
       </c>
       <c r="H11" s="1">
-        <v>85189.53780000001</v>
+        <v>84848.3263</v>
       </c>
       <c r="I11" s="1">
-        <v>1914.0921</v>
+        <v>1910.2573</v>
       </c>
       <c r="J11" s="1">
-        <v>87103.63</v>
+        <v>86758.5836</v>
       </c>
       <c r="K11" s="1">
-        <v>90582.97870000001</v>
+        <v>90581.8126</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2502</v>
+        <v>13.2768</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10638.0307</v>
+        <v>-10636.7524</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0037</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.6545</v>
       </c>
       <c r="C12" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D12" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E12" s="1">
-        <v>7690.0138</v>
+        <v>7674.4532</v>
       </c>
       <c r="F12" s="1">
-        <v>840.652</v>
+        <v>838.8672</v>
       </c>
       <c r="H12" s="1">
-        <v>97313.2792</v>
+        <v>96922.20480000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1276.0614</v>
+        <v>1273.5049</v>
       </c>
       <c r="J12" s="1">
-        <v>98589.3406</v>
+        <v>98195.70970000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101221.0094</v>
+        <v>101218.565</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1627</v>
+        <v>13.189</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10638.0307</v>
+        <v>-10636.7524</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0153</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.2345</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E13" s="1">
-        <v>8530.665800000001</v>
+        <v>8513.3205</v>
       </c>
       <c r="F13" s="1">
-        <v>869.5109</v>
+        <v>867.6688</v>
       </c>
       <c r="H13" s="1">
-        <v>104368.4303</v>
+        <v>103947.6427</v>
       </c>
       <c r="I13" s="1">
-        <v>638.0307</v>
+        <v>636.7524</v>
       </c>
       <c r="J13" s="1">
-        <v>105006.461</v>
+        <v>104584.3952</v>
       </c>
       <c r="K13" s="1">
-        <v>111859.0401</v>
+        <v>111855.3174</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1126</v>
+        <v>13.1389</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2076.3037</v>
+        <v>2072.1024</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8561.727000000001</v>
+        <v>-8564.650100000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.033</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.1636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D14" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E14" s="1">
-        <v>9400.176600000001</v>
+        <v>9380.989299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9400.176600000001</v>
+        <v>-9380.989299999999</v>
       </c>
       <c r="H14" s="1">
-        <v>114339.9885</v>
+        <v>113878.6434</v>
       </c>
       <c r="I14" s="1">
-        <v>2076.3037</v>
+        <v>2072.1024</v>
       </c>
       <c r="J14" s="1">
-        <v>116416.2922</v>
+        <v>115950.7458</v>
       </c>
       <c r="K14" s="1">
-        <v>122497.0708</v>
+        <v>122492.0698</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0314</v>
+        <v>13.0575</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114339.9885</v>
+        <v>113878.6434</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0123</v>
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.3568</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.2487</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="F3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0081</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.3991</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E4" s="1">
-        <v>1503.4734</v>
+        <v>1500.4674</v>
       </c>
       <c r="F4" s="1">
-        <v>735.4829999999999</v>
+        <v>742.9761</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3025</v>
+        <v>13.3292</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9585.2845</v>
+        <v>-9706.1369</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0114</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.5985</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E5" s="1">
-        <v>2238.9563</v>
+        <v>2243.4435</v>
       </c>
       <c r="F5" s="1">
-        <v>702.5445999999999</v>
+        <v>703.9528</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30446.4479</v>
+        <v>30446.4453</v>
       </c>
       <c r="I5" s="1">
-        <v>414.7155</v>
+        <v>293.8631</v>
       </c>
       <c r="J5" s="1">
-        <v>30861.1634</v>
+        <v>30740.3084</v>
       </c>
       <c r="K5" s="1">
-        <v>29854.8102</v>
+        <v>29975.1228</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3343</v>
+        <v>13.3612</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9553.552100000001</v>
+        <v>-9591.8498</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D6" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E6" s="1">
-        <v>2941.5009</v>
+        <v>2947.3963</v>
       </c>
       <c r="F6" s="1">
-        <v>709.3333</v>
+        <v>710.7566</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40285.3256</v>
+        <v>40285.308</v>
       </c>
       <c r="I6" s="1">
-        <v>861.1634</v>
+        <v>702.0134</v>
       </c>
       <c r="J6" s="1">
-        <v>41146.489</v>
+        <v>40987.3213</v>
       </c>
       <c r="K6" s="1">
-        <v>39408.3623</v>
+        <v>39566.9725</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3974</v>
+        <v>13.4244</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9714.6744</v>
+        <v>-9753.6415</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.007</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.3398</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E7" s="1">
-        <v>3650.8342</v>
+        <v>3658.1529</v>
       </c>
       <c r="F7" s="1">
-        <v>835.5814</v>
+        <v>819.0904</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48701.3983</v>
+        <v>48701.3557</v>
       </c>
       <c r="I7" s="1">
-        <v>1146.489</v>
+        <v>948.3719</v>
       </c>
       <c r="J7" s="1">
-        <v>49847.8872</v>
+        <v>49649.7276</v>
       </c>
       <c r="K7" s="1">
-        <v>49123.0367</v>
+        <v>49320.614</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4553</v>
+        <v>13.4824</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>794.2052</v>
+        <v>795.797</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10352.2837</v>
+        <v>-10152.5749</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.8469</v>
       </c>
       <c r="C8" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D8" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E8" s="1">
-        <v>4486.4156</v>
+        <v>4477.2433</v>
       </c>
       <c r="F8" s="1">
-        <v>840.2187</v>
+        <v>838.6648</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57636.533</v>
+        <v>57403.6322</v>
       </c>
       <c r="I8" s="1">
-        <v>794.2052</v>
+        <v>795.797</v>
       </c>
       <c r="J8" s="1">
-        <v>58430.7382</v>
+        <v>58199.4292</v>
       </c>
       <c r="K8" s="1">
-        <v>60269.5256</v>
+        <v>60268.9859</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4338</v>
+        <v>13.4612</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10794.2052</v>
+        <v>-10795.797</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.129</v>
       </c>
       <c r="C9" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D9" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E9" s="1">
-        <v>5326.6343</v>
+        <v>5315.9082</v>
       </c>
       <c r="F9" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69933.3817</v>
+        <v>69652.75</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69933.3817</v>
+        <v>69652.75</v>
       </c>
       <c r="K9" s="1">
-        <v>71063.7309</v>
+        <v>71064.78290000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3412</v>
+        <v>13.3683</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.022</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.716</v>
       </c>
       <c r="C10" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D10" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E10" s="1">
-        <v>6088.3069</v>
+        <v>6076.0581</v>
       </c>
       <c r="F10" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77418.91099999999</v>
+        <v>77108.82249999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77418.91099999999</v>
+        <v>77108.82249999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81063.7309</v>
+        <v>81064.78290000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3147</v>
+        <v>13.3417</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1438.1913</v>
+        <v>1435.2952</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8561.8087</v>
+        <v>-8564.7048</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.4613</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E11" s="1">
-        <v>6874.7178</v>
+        <v>6860.895</v>
       </c>
       <c r="F11" s="1">
-        <v>917.8971</v>
+        <v>915.8274</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85667.9204</v>
+        <v>85324.8348</v>
       </c>
       <c r="I11" s="1">
-        <v>1438.1913</v>
+        <v>1435.2952</v>
       </c>
       <c r="J11" s="1">
-        <v>87106.1116</v>
+        <v>86760.13</v>
       </c>
       <c r="K11" s="1">
-        <v>91063.7309</v>
+        <v>91064.78290000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2462</v>
+        <v>13.273</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11438.1913</v>
+        <v>-11435.2952</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0036</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.6545</v>
       </c>
       <c r="C12" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D12" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E12" s="1">
-        <v>7792.6149</v>
+        <v>7776.7224</v>
       </c>
       <c r="F12" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98611.64479999999</v>
+        <v>98213.78230000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98611.64479999999</v>
+        <v>98213.78230000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102501.9221</v>
+        <v>102500.0781</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1537</v>
+        <v>13.1804</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.2345</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E13" s="1">
-        <v>8582.847599999999</v>
+        <v>8565.372100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105006.8488</v>
+        <v>104583.1938</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105006.8488</v>
+        <v>104583.1938</v>
       </c>
       <c r="K13" s="1">
-        <v>112501.9221</v>
+        <v>112500.0781</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1078</v>
+        <v>13.1343</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2104.006</v>
+        <v>2099.715</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7895.994</v>
+        <v>-7900.285</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.1636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D14" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E14" s="1">
-        <v>9400.2083</v>
+        <v>9381.099399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9400.2083</v>
+        <v>-9381.099399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114340.3741</v>
+        <v>113879.9794</v>
       </c>
       <c r="I14" s="1">
-        <v>2104.006</v>
+        <v>2099.715</v>
       </c>
       <c r="J14" s="1">
-        <v>116444.3801</v>
+        <v>115979.6945</v>
       </c>
       <c r="K14" s="1">
-        <v>122501.9221</v>
+        <v>122500.0781</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0318</v>
+        <v>13.0582</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114340.3741</v>
+        <v>113879.9794</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0125</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.3568</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.2487</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="F3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0081</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.3991</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E4" s="1">
-        <v>1503.4734</v>
+        <v>1500.4674</v>
       </c>
       <c r="F4" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3025</v>
+        <v>13.3292</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9730.474399999999</v>
+        <v>-9731.0141</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0114</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.5985</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E5" s="1">
-        <v>2249.7921</v>
+        <v>2245.2965</v>
       </c>
       <c r="F5" s="1">
-        <v>713.8436</v>
+        <v>724.2791</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30593.7984</v>
+        <v>30471.5919</v>
       </c>
       <c r="I5" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="J5" s="1">
-        <v>30863.324</v>
+        <v>30740.5778</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3346</v>
+        <v>13.3613</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9707.2029</v>
+        <v>-9868.810100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D6" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E6" s="1">
-        <v>2963.6358</v>
+        <v>2969.5756</v>
       </c>
       <c r="F6" s="1">
-        <v>723.8898</v>
+        <v>725.3422</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40588.4739</v>
+        <v>40588.4562</v>
       </c>
       <c r="I6" s="1">
-        <v>562.3228</v>
+        <v>400.1758</v>
       </c>
       <c r="J6" s="1">
-        <v>41150.7967</v>
+        <v>40988.632</v>
       </c>
       <c r="K6" s="1">
-        <v>39707.2029</v>
+        <v>39868.8101</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3981</v>
+        <v>13.4258</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9914.032300000001</v>
+        <v>-9953.7988</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.007</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.3398</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E7" s="1">
-        <v>3687.5256</v>
+        <v>3694.9178</v>
       </c>
       <c r="F7" s="1">
-        <v>798.2346</v>
+        <v>781.5342000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49190.8534</v>
+        <v>49190.8104</v>
       </c>
       <c r="I7" s="1">
-        <v>648.2904</v>
+        <v>446.3769</v>
       </c>
       <c r="J7" s="1">
-        <v>49839.1439</v>
+        <v>49637.1874</v>
       </c>
       <c r="K7" s="1">
-        <v>49621.2352</v>
+        <v>49822.609</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4565</v>
+        <v>13.4841</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>800.1817</v>
+        <v>801.7854</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9848.1088</v>
+        <v>-9644.5915</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0256</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.8469</v>
       </c>
       <c r="C8" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D8" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E8" s="1">
-        <v>4485.7602</v>
+        <v>4476.452</v>
       </c>
       <c r="F8" s="1">
-        <v>840.6839</v>
+        <v>839.13</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57628.1127</v>
+        <v>57393.4867</v>
       </c>
       <c r="I8" s="1">
-        <v>800.1817</v>
+        <v>801.7854</v>
       </c>
       <c r="J8" s="1">
-        <v>58428.2943</v>
+        <v>58195.2721</v>
       </c>
       <c r="K8" s="1">
-        <v>60269.5256</v>
+        <v>60268.9859</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4357</v>
+        <v>13.4636</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10800.1817</v>
+        <v>-10801.7854</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0236</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.129</v>
       </c>
       <c r="C9" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D9" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E9" s="1">
-        <v>5326.4441</v>
+        <v>5315.5821</v>
       </c>
       <c r="F9" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69930.8842</v>
+        <v>69648.47719999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69930.8842</v>
+        <v>69648.47719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71069.70729999999</v>
+        <v>71070.77129999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3428</v>
+        <v>13.3703</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.022</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.716</v>
       </c>
       <c r="C10" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D10" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E10" s="1">
-        <v>6088.1167</v>
+        <v>6075.732</v>
       </c>
       <c r="F10" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77416.492</v>
+        <v>77104.6841</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77416.492</v>
+        <v>77104.6841</v>
       </c>
       <c r="K10" s="1">
-        <v>81069.70729999999</v>
+        <v>81070.77129999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3161</v>
+        <v>13.3434</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1438.1399</v>
+        <v>1435.2072</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8561.8601</v>
+        <v>-8564.792799999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.4613</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E11" s="1">
-        <v>6874.5275</v>
+        <v>6860.5689</v>
       </c>
       <c r="F11" s="1">
-        <v>917.893</v>
+        <v>915.8203</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85665.54979999999</v>
+        <v>85320.77929999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1438.1399</v>
+        <v>1435.2072</v>
       </c>
       <c r="J11" s="1">
-        <v>87103.6897</v>
+        <v>86755.9865</v>
       </c>
       <c r="K11" s="1">
-        <v>91069.70729999999</v>
+        <v>91070.77129999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2474</v>
+        <v>13.2745</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11438.1399</v>
+        <v>-11435.2072</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0036</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.6545</v>
       </c>
       <c r="C12" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D12" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E12" s="1">
-        <v>7792.4205</v>
+        <v>7776.3892</v>
       </c>
       <c r="F12" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98609.1854</v>
+        <v>98209.57490000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98609.1854</v>
+        <v>98209.57490000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102507.8472</v>
+        <v>102505.9785</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1548</v>
+        <v>13.1817</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.2345</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E13" s="1">
-        <v>8582.653200000001</v>
+        <v>8565.039000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105004.471</v>
+        <v>104579.126</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105004.471</v>
+        <v>104579.126</v>
       </c>
       <c r="K13" s="1">
-        <v>112507.8472</v>
+        <v>112505.9785</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1087</v>
+        <v>13.1355</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2103.9535</v>
+        <v>2099.6251</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7896.0465</v>
+        <v>-7900.3749</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.1636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D14" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E14" s="1">
-        <v>9400.013999999999</v>
+        <v>9380.7662</v>
       </c>
       <c r="F14" s="1">
-        <v>-9400.013999999999</v>
+        <v>-9380.7662</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114338.01</v>
+        <v>113875.9352</v>
       </c>
       <c r="I14" s="1">
-        <v>2103.9535</v>
+        <v>2099.6251</v>
       </c>
       <c r="J14" s="1">
-        <v>116441.9636</v>
+        <v>115975.5603</v>
       </c>
       <c r="K14" s="1">
-        <v>122507.8472</v>
+        <v>122505.9785</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0327</v>
+        <v>13.0593</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114338.01</v>
+        <v>113875.9352</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0125</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.3568</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.2487</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="F3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0081</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.3991</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E4" s="1">
-        <v>1503.4734</v>
+        <v>1500.4674</v>
       </c>
       <c r="F4" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3025</v>
+        <v>13.3292</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9730.474399999999</v>
+        <v>-9731.0141</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0114</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.5985</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E5" s="1">
-        <v>2249.7921</v>
+        <v>2245.2965</v>
       </c>
       <c r="F5" s="1">
-        <v>736.1262</v>
+        <v>746.6063</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30593.7984</v>
+        <v>30471.5919</v>
       </c>
       <c r="I5" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="J5" s="1">
-        <v>30863.324</v>
+        <v>30740.5778</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3346</v>
+        <v>13.3613</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10010.2116</v>
+        <v>-10173.0335</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D6" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E6" s="1">
-        <v>2985.9183</v>
+        <v>2991.9028</v>
       </c>
       <c r="F6" s="1">
-        <v>738.6664</v>
+        <v>735.7011</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40893.6441</v>
+        <v>40893.6262</v>
       </c>
       <c r="I6" s="1">
-        <v>259.314</v>
+        <v>95.9524</v>
       </c>
       <c r="J6" s="1">
-        <v>41152.9581</v>
+        <v>40989.5786</v>
       </c>
       <c r="K6" s="1">
-        <v>40010.2116</v>
+        <v>40173.0335</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3996</v>
+        <v>13.4273</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10116.406</v>
+        <v>-10095.9524</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0071</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.3398</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E7" s="1">
-        <v>3724.5847</v>
+        <v>3727.6039</v>
       </c>
       <c r="F7" s="1">
-        <v>760.3493</v>
+        <v>748.139</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49685.2153</v>
+        <v>49625.9628</v>
       </c>
       <c r="I7" s="1">
-        <v>142.908</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49828.1233</v>
+        <v>49625.9628</v>
       </c>
       <c r="K7" s="1">
-        <v>50126.6176</v>
+        <v>50268.9859</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4583</v>
+        <v>13.4856</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>806.1979</v>
+        <v>807.8137</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9336.7101</v>
+        <v>-9192.186299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0259</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.8469</v>
       </c>
       <c r="C8" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D8" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E8" s="1">
-        <v>4484.9341</v>
+        <v>4475.7429</v>
       </c>
       <c r="F8" s="1">
-        <v>841.1522</v>
+        <v>839.5984</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57617.4993</v>
+        <v>57384.3943</v>
       </c>
       <c r="I8" s="1">
-        <v>806.1979</v>
+        <v>807.8137</v>
       </c>
       <c r="J8" s="1">
-        <v>58423.6973</v>
+        <v>58192.2081</v>
       </c>
       <c r="K8" s="1">
-        <v>60269.5256</v>
+        <v>60268.9859</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4382</v>
+        <v>13.4657</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10806.1979</v>
+        <v>-10807.8137</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0235</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.129</v>
       </c>
       <c r="C9" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D9" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E9" s="1">
-        <v>5326.0862</v>
+        <v>5315.3412</v>
       </c>
       <c r="F9" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69926.1862</v>
+        <v>69645.32120000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69926.1862</v>
+        <v>69645.32120000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71075.7236</v>
+        <v>71076.7997</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3448</v>
+        <v>13.372</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.022</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.716</v>
       </c>
       <c r="C10" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D10" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E10" s="1">
-        <v>6087.7589</v>
+        <v>6075.4911</v>
       </c>
       <c r="F10" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77411.9418</v>
+        <v>77101.6275</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77411.9418</v>
+        <v>77101.6275</v>
       </c>
       <c r="K10" s="1">
-        <v>81075.7236</v>
+        <v>81076.7997</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3178</v>
+        <v>13.3449</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1438.0433</v>
+        <v>1435.1421</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8561.956700000001</v>
+        <v>-8564.857900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.4613</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E11" s="1">
-        <v>6874.1697</v>
+        <v>6860.3281</v>
       </c>
       <c r="F11" s="1">
-        <v>917.8852000000001</v>
+        <v>915.8151</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85661.0907</v>
+        <v>85317.78389999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1438.0433</v>
+        <v>1435.1421</v>
       </c>
       <c r="J11" s="1">
-        <v>87099.13400000001</v>
+        <v>86752.92600000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91075.7236</v>
+        <v>91076.7997</v>
       </c>
       <c r="L11" s="1">
-        <v>13.249</v>
+        <v>13.2759</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11438.0433</v>
+        <v>-11435.1421</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0036</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.6545</v>
       </c>
       <c r="C12" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D12" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E12" s="1">
-        <v>7792.0549</v>
+        <v>7776.1432</v>
       </c>
       <c r="F12" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98604.55899999999</v>
+        <v>98206.4672</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98604.55899999999</v>
+        <v>98206.4672</v>
       </c>
       <c r="K12" s="1">
-        <v>102513.7669</v>
+        <v>102511.9418</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1562</v>
+        <v>13.1829</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.2345</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E13" s="1">
-        <v>8582.2876</v>
+        <v>8564.7929</v>
       </c>
       <c r="F13" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104999.9982</v>
+        <v>104576.1215</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104999.9982</v>
+        <v>104576.1215</v>
       </c>
       <c r="K13" s="1">
-        <v>112513.7669</v>
+        <v>112511.9418</v>
       </c>
       <c r="L13" s="1">
-        <v>13.11</v>
+        <v>13.1366</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2103.8548</v>
+        <v>2099.5587</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7896.1452</v>
+        <v>-7900.4413</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.1636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D14" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E14" s="1">
-        <v>9399.6484</v>
+        <v>9380.5201</v>
       </c>
       <c r="F14" s="1">
-        <v>-9399.6484</v>
+        <v>-9380.5201</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114333.5632</v>
+        <v>113872.9481</v>
       </c>
       <c r="I14" s="1">
-        <v>2103.8548</v>
+        <v>2099.5587</v>
       </c>
       <c r="J14" s="1">
-        <v>116437.418</v>
+        <v>115972.5068</v>
       </c>
       <c r="K14" s="1">
-        <v>122513.7669</v>
+        <v>122511.9418</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0339</v>
+        <v>13.0603</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114333.5632</v>
+        <v>113872.9481</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0125</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.3568</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.2487</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="F3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9919.0674</v>
+        <v>9879.4046</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0081</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.3991</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E4" s="1">
-        <v>1503.4734</v>
+        <v>1500.4674</v>
       </c>
       <c r="F4" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20145.1898</v>
+        <v>20064.7007</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3025</v>
+        <v>13.3292</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9730.474399999999</v>
+        <v>-9731.0141</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0114</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.5985</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E5" s="1">
-        <v>2249.7921</v>
+        <v>2245.2965</v>
       </c>
       <c r="F5" s="1">
-        <v>755.1955</v>
+        <v>753.6482999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30593.7984</v>
+        <v>30471.5919</v>
       </c>
       <c r="I5" s="1">
-        <v>269.5256</v>
+        <v>268.9859</v>
       </c>
       <c r="J5" s="1">
-        <v>30863.324</v>
+        <v>30740.5778</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3346</v>
+        <v>13.3613</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10269.5256</v>
+        <v>-10268.9859</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D6" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E6" s="1">
-        <v>3004.9876</v>
+        <v>2998.9448</v>
       </c>
       <c r="F6" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41154.8078</v>
+        <v>40989.8772</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41154.8078</v>
+        <v>40989.8772</v>
       </c>
       <c r="K6" s="1">
-        <v>40269.5256</v>
+        <v>40268.9859</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4009</v>
+        <v>13.4277</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0071</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.3398</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E7" s="1">
-        <v>3735.1545</v>
+        <v>3727.6537</v>
       </c>
       <c r="F7" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49826.2134</v>
+        <v>49626.6269</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49826.2134</v>
+        <v>49626.6269</v>
       </c>
       <c r="K7" s="1">
-        <v>50269.5256</v>
+        <v>50268.9859</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4585</v>
+        <v>13.4854</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>811.3467000000001</v>
+        <v>809.7151</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9188.6533</v>
+        <v>-9190.284900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.026</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.8469</v>
       </c>
       <c r="C8" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D8" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E8" s="1">
-        <v>4484.7909</v>
+        <v>4475.7927</v>
       </c>
       <c r="F8" s="1">
-        <v>841.553</v>
+        <v>839.7461</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57615.66</v>
+        <v>57385.0338</v>
       </c>
       <c r="I8" s="1">
-        <v>811.3467000000001</v>
+        <v>809.7151</v>
       </c>
       <c r="J8" s="1">
-        <v>58427.0066</v>
+        <v>58194.7489</v>
       </c>
       <c r="K8" s="1">
-        <v>60269.5256</v>
+        <v>60268.9859</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4386</v>
+        <v>13.4655</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10811.3467</v>
+        <v>-10809.7151</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0234</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.129</v>
       </c>
       <c r="C9" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D9" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E9" s="1">
-        <v>5326.3438</v>
+        <v>5315.5388</v>
       </c>
       <c r="F9" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69929.56819999999</v>
+        <v>69647.91009999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69929.56819999999</v>
+        <v>69647.91009999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71080.8723</v>
+        <v>71078.701</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3452</v>
+        <v>13.3719</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.022</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.716</v>
       </c>
       <c r="C10" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D10" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E10" s="1">
-        <v>6088.0165</v>
+        <v>6075.6887</v>
       </c>
       <c r="F10" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77415.21739999999</v>
+        <v>77104.1349</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77415.21739999999</v>
+        <v>77104.1349</v>
       </c>
       <c r="K10" s="1">
-        <v>81080.8723</v>
+        <v>81078.701</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3181</v>
+        <v>13.3448</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1438.1128</v>
+        <v>1435.1955</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8561.887199999999</v>
+        <v>-8564.8045</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.4613</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E11" s="1">
-        <v>6874.4273</v>
+        <v>6860.5256</v>
       </c>
       <c r="F11" s="1">
-        <v>917.8908</v>
+        <v>915.8194</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85664.3008</v>
+        <v>85320.2411</v>
       </c>
       <c r="I11" s="1">
-        <v>1438.1128</v>
+        <v>1435.1955</v>
       </c>
       <c r="J11" s="1">
-        <v>87102.4136</v>
+        <v>86755.4366</v>
       </c>
       <c r="K11" s="1">
-        <v>91080.8723</v>
+        <v>91078.701</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2492</v>
+        <v>13.2758</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11438.1128</v>
+        <v>-11435.1955</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0036</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.6545</v>
       </c>
       <c r="C12" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D12" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E12" s="1">
-        <v>7792.3181</v>
+        <v>7776.345</v>
       </c>
       <c r="F12" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>98607.8895</v>
+        <v>98209.0165</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98607.8895</v>
+        <v>98209.0165</v>
       </c>
       <c r="K12" s="1">
-        <v>102518.9851</v>
+        <v>102513.8965</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1564</v>
+        <v>13.1828</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.2345</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E13" s="1">
-        <v>8582.550800000001</v>
+        <v>8564.9948</v>
       </c>
       <c r="F13" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>105003.2181</v>
+        <v>104578.5862</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105003.2181</v>
+        <v>104578.5862</v>
       </c>
       <c r="K13" s="1">
-        <v>112518.9851</v>
+        <v>112513.8965</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1102</v>
+        <v>13.1365</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2103.9259</v>
+        <v>2099.6132</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7896.0741</v>
+        <v>-7900.3868</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.1636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D14" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E14" s="1">
-        <v>9399.911599999999</v>
+        <v>9380.722</v>
       </c>
       <c r="F14" s="1">
-        <v>-9399.911599999999</v>
+        <v>-9380.722</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114336.7644</v>
+        <v>113875.3985</v>
       </c>
       <c r="I14" s="1">
-        <v>2103.9259</v>
+        <v>2099.6132</v>
       </c>
       <c r="J14" s="1">
-        <v>116440.6903</v>
+        <v>115975.0116</v>
       </c>
       <c r="K14" s="1">
-        <v>122518.9851</v>
+        <v>122513.8965</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0341</v>
+        <v>13.0602</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114336.7644</v>
+        <v>113875.3985</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0125</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0314</v>
+        <v>13.0575</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0318</v>
+        <v>13.0582</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0327</v>
+        <v>13.0593</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0339</v>
+        <v>13.0603</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0341</v>
+        <v>13.0602</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0907</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0337</v>
+        <v>-0.0461</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0333</v>
+        <v>-0.0457</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0334</v>
+        <v>-0.0458</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0335</v>
+        <v>-0.0459</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0334</v>
+        <v>-0.0459</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0712</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0697</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.07000000000000001</v>
+        <v>0.0698</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0701</v>
+        <v>0.0698</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.5586</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.774</v>
+        <v>-0.9559</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.7664</v>
+        <v>-0.9465</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.7659</v>
+        <v>-0.9472</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.7665999999999999</v>
+        <v>-0.9478</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.7657</v>
+        <v>-0.9473</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0553</v>
+        <v>-0.0624</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0547</v>
+        <v>-0.0618</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0547</v>
+        <v>-0.0617</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0547</v>
+        <v>-0.0617</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0546</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4573.3745</v>
+        <v>4564.1722</v>
       </c>
       <c r="D8" s="1">
-        <v>4605.9282</v>
+        <v>4599.7932</v>
       </c>
       <c r="E8" s="1">
-        <v>4611.8007</v>
+        <v>4605.6036</v>
       </c>
       <c r="F8" s="1">
-        <v>4617.6217</v>
+        <v>4611.5004</v>
       </c>
       <c r="G8" s="1">
-        <v>4622.911</v>
+        <v>4613.5096</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P64_KFSDIV.xlsx
+++ b/output/1Y_P64_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5528.839</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9486</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9486</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9485</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9484</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
